--- a/working/CrizerPFAS/CrizerPFAS-Clint-Level4.xlsx
+++ b/working/CrizerPFAS/CrizerPFAS-Clint-Level4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwambaug\git\invitrotkstats\working\CrizerPFAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8E14764-0BFC-4503-B9E7-424830A935EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D6DD447-4FE1-4514-8B4D-3BFE184102EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29970" yWindow="2850" windowWidth="27630" windowHeight="11715"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="CrizerPFAS-Clint-Level4" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="99">
   <si>
     <t>Compound.Name</t>
   </si>
@@ -65,6 +65,258 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>8:2_Fluoroteleomer_Sulfonic_Acid</t>
+  </si>
+  <si>
+    <t>DTXSID00192353</t>
+  </si>
+  <si>
+    <t>3:3_Fluorotelomer_carboxylic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID00379268</t>
+  </si>
+  <si>
+    <t>Potassium_perfluorooctanoate</t>
+  </si>
+  <si>
+    <t>DTXSID00880026</t>
+  </si>
+  <si>
+    <t>N-Ethylperfluorooctanesulfonamide</t>
+  </si>
+  <si>
+    <t>DTXSID1032646</t>
+  </si>
+  <si>
+    <t>Perfluoroheptanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID1037303</t>
+  </si>
+  <si>
+    <t>N-Methylperfluorooctanesulfonamide</t>
+  </si>
+  <si>
+    <t>DTXSID1067629</t>
+  </si>
+  <si>
+    <t>2-(Perfluorohexyl)ethylphosphonic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID20179883</t>
+  </si>
+  <si>
+    <t>3,3-Bis(trifluoromethyl)-2-propenoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID30170109</t>
+  </si>
+  <si>
+    <t>Perfluorodecanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID3031860</t>
+  </si>
+  <si>
+    <t>Perfluorohexanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID3031862</t>
+  </si>
+  <si>
+    <t>Perfluorooctanesulfonic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID3031864</t>
+  </si>
+  <si>
+    <t>Potassium_perfluorobutanesulfonate</t>
+  </si>
+  <si>
+    <t>DTXSID3037707</t>
+  </si>
+  <si>
+    <t>Potassium_Pefluorohexanesulfate</t>
+  </si>
+  <si>
+    <t>DTXSID3037709</t>
+  </si>
+  <si>
+    <t>Perfluoro-3,6-dioxaheptanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID30382063</t>
+  </si>
+  <si>
+    <t>Perfluorotetradecanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID3059921</t>
+  </si>
+  <si>
+    <t>4:2_Fluorotelomer_sulfonic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID30891564</t>
+  </si>
+  <si>
+    <t>3-(Perfluoroisopropyl)-2-propenoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID40380257</t>
+  </si>
+  <si>
+    <t>Perfluorobutanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID4059916</t>
+  </si>
+  <si>
+    <t>Sodium_perfluorooctanoate</t>
+  </si>
+  <si>
+    <t>DTXSID40880025</t>
+  </si>
+  <si>
+    <t>Perfluorobutanesulfonic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID5030030</t>
+  </si>
+  <si>
+    <t>Perfluorohexanesulfonamide</t>
+  </si>
+  <si>
+    <t>DTXSID50469320</t>
+  </si>
+  <si>
+    <t>11-H-Perfluoroundecanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID5061954</t>
+  </si>
+  <si>
+    <t>4H-Perfluorobutanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID50892417</t>
+  </si>
+  <si>
+    <t>2,2,2-Trifluoroethyl_perfluorobutanesulfonate</t>
+  </si>
+  <si>
+    <t>DTXSID60380390</t>
+  </si>
+  <si>
+    <t>Perfluoro(4-methoxybutanoic)_acid</t>
+  </si>
+  <si>
+    <t>DTXSID60500450</t>
+  </si>
+  <si>
+    <t>Perfluoropentanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID6062599</t>
+  </si>
+  <si>
+    <t>Perfluoro-4-isopropoxybutanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID60663110</t>
+  </si>
+  <si>
+    <t>6:2_Fluorotelomer_sulfonic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID6067331</t>
+  </si>
+  <si>
+    <t>Sodium_perfluorodecanesulfonate</t>
+  </si>
+  <si>
+    <t>DTXSID60892443</t>
+  </si>
+  <si>
+    <t>Perfluoro-3-methoxypropanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID70191136</t>
+  </si>
+  <si>
+    <t>Perfluorohexanesulfonic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID7040150</t>
+  </si>
+  <si>
+    <t>Perfluorooctanesulfonate</t>
+  </si>
+  <si>
+    <t>DTXSID80108992</t>
+  </si>
+  <si>
+    <t>Perfluorononanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID8031863</t>
+  </si>
+  <si>
+    <t>Perfluorooctanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID8031865</t>
+  </si>
+  <si>
+    <t>Potassium_perfluorooctanesulfonate</t>
+  </si>
+  <si>
+    <t>DTXSID8037706</t>
+  </si>
+  <si>
+    <t>Ammonium_perfluorooctanoate</t>
+  </si>
+  <si>
+    <t>DTXSID8037708</t>
+  </si>
+  <si>
+    <t>Perfluoroundecanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID8047553</t>
+  </si>
+  <si>
+    <t>Perfluorooctanesulfonamido_ammonium_iodide</t>
+  </si>
+  <si>
+    <t>DTXSID8051419</t>
+  </si>
+  <si>
+    <t>Perfluoroheptanesulfonic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID8059920</t>
+  </si>
+  <si>
+    <t>Perfluoropropanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID8059970</t>
+  </si>
+  <si>
+    <t>Perfluoro-1-octanesulfonyl_chloride</t>
+  </si>
+  <si>
+    <t>DTXSID90315130</t>
+  </si>
+  <si>
+    <t>Perfluorotridecanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID90868151</t>
   </si>
 </sst>
 </file>
@@ -548,8 +800,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -606,6 +859,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L44" totalsRowShown="0">
+  <autoFilter ref="A1:L44"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="Compound.Name"/>
+    <tableColumn id="2" name="DTXSID"/>
+    <tableColumn id="3" name="Lab.Compound.Name"/>
+    <tableColumn id="4" name="Clint.1.Med"/>
+    <tableColumn id="5" name="Clint.1.Low"/>
+    <tableColumn id="6" name="Clint.1.High"/>
+    <tableColumn id="7" name="Clint.10.Med"/>
+    <tableColumn id="8" name="Clint.10.Low"/>
+    <tableColumn id="9" name="Clint.10.High"/>
+    <tableColumn id="10" name="Clint.pValue"/>
+    <tableColumn id="11" name="Sat.pValue"/>
+    <tableColumn id="12" name="degrades.pValue"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -905,13 +1179,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection sqref="A1:L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.7265625" customWidth="1"/>
+    <col min="2" max="2" width="8.90625" customWidth="1"/>
+    <col min="3" max="3" width="21.1796875" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" customWidth="1"/>
+    <col min="7" max="7" width="13.6328125" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" customWidth="1"/>
+    <col min="10" max="10" width="13.36328125" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="17.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -962,13 +1250,13 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="F2">
-        <v>325</v>
+        <v>21.4</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -980,16 +1268,1615 @@
         <v>14</v>
       </c>
       <c r="J2">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="K2">
+        <v>0.75</v>
+      </c>
+      <c r="L2">
+        <v>0.95799999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>11.1</v>
+      </c>
+      <c r="E3">
+        <v>6.47</v>
+      </c>
+      <c r="F3">
+        <v>14.3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="K3">
+        <v>0.751</v>
+      </c>
+      <c r="L3">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="K4">
+        <v>0.75</v>
+      </c>
+      <c r="L4">
+        <v>6.8599999999999998E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>14.2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="K5">
+        <v>0.751</v>
+      </c>
+      <c r="L5">
+        <v>9.7900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="K6">
+        <v>0.747</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>22.4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7">
+        <v>0.504</v>
+      </c>
+      <c r="K7">
+        <v>0.75</v>
+      </c>
+      <c r="L7">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>15.4</v>
+      </c>
+      <c r="E8">
+        <v>8.73</v>
+      </c>
+      <c r="F8">
+        <v>23.8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8">
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="K8">
+        <v>0.751</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9">
+        <v>0.996</v>
+      </c>
+      <c r="K9">
         <v>0.752</v>
       </c>
-      <c r="L2">
-        <v>2.16E-3</v>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>13.4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="K10">
+        <v>0.748</v>
+      </c>
+      <c r="L10">
+        <v>0.84299999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="K11">
+        <v>0.75</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1.84</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="K12">
+        <v>0.745</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>1.23</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>12.2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13">
+        <v>0.496</v>
+      </c>
+      <c r="K13">
+        <v>0.751</v>
+      </c>
+      <c r="L13">
+        <v>4.6000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="K14">
+        <v>0.751</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15">
+        <v>0.92</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>11.6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15">
+        <v>0.498</v>
+      </c>
+      <c r="K15">
+        <v>0.751</v>
+      </c>
+      <c r="L15">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>12.1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="K16">
+        <v>0.747</v>
+      </c>
+      <c r="L16">
+        <v>0.21199999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="K17">
+        <v>0.747</v>
+      </c>
+      <c r="L17">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>17.8</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="K18">
+        <v>0.752</v>
+      </c>
+      <c r="L18">
+        <v>0.39300000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19">
+        <v>8.43</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>13.8</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="K19">
+        <v>0.748</v>
+      </c>
+      <c r="L19">
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20">
+        <v>9.43</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>14.7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="K20">
+        <v>0.745</v>
+      </c>
+      <c r="L20">
+        <v>0.74399999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>21.4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="K21">
+        <v>0.746</v>
+      </c>
+      <c r="L21">
+        <v>0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>14.9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="K22">
+        <v>0.747</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23">
+        <v>31</v>
+      </c>
+      <c r="E23">
+        <v>11.7</v>
+      </c>
+      <c r="F23">
+        <v>38</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="1">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="K23">
+        <v>0.751</v>
+      </c>
+      <c r="L23">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24">
+        <v>8.77</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>26.9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="K24">
+        <v>0.75</v>
+      </c>
+      <c r="L24">
+        <v>7.8299999999999995E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>21.4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K25">
+        <v>0.749</v>
+      </c>
+      <c r="L25">
+        <v>0.307</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="K26">
+        <v>0.754</v>
+      </c>
+      <c r="L26">
+        <v>1.24E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="K27">
+        <v>0.75</v>
+      </c>
+      <c r="L27">
+        <v>0.52700000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="K28">
+        <v>0.749</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29">
+        <v>0.995</v>
+      </c>
+      <c r="K29">
+        <v>0.751</v>
+      </c>
+      <c r="L29">
+        <v>2.7999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>4.07</v>
+      </c>
+      <c r="G30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="K30">
+        <v>0.749</v>
+      </c>
+      <c r="L30">
+        <v>0.99399999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>9.93</v>
+      </c>
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="K31">
+        <v>0.745</v>
+      </c>
+      <c r="L31">
+        <v>0.99399999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32">
+        <v>0.99</v>
+      </c>
+      <c r="K32">
+        <v>0.749</v>
+      </c>
+      <c r="L32">
+        <v>8.5999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33">
+        <v>3.67</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>10.7</v>
+      </c>
+      <c r="G33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="K33">
+        <v>0.749</v>
+      </c>
+      <c r="L33">
+        <v>0.46600000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34">
+        <v>7.43</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>13.2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="K34">
+        <v>0.75</v>
+      </c>
+      <c r="L34">
+        <v>0.85699999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>10.6</v>
+      </c>
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="K35">
+        <v>0.75</v>
+      </c>
+      <c r="L35">
+        <v>5.1200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="K36">
+        <v>0.749</v>
+      </c>
+      <c r="L36">
+        <v>6.6400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="K37">
+        <v>0.748</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38">
+        <v>10.7</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>15.1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38">
+        <v>7.9899999999999999E-2</v>
+      </c>
+      <c r="K38">
+        <v>0.751</v>
+      </c>
+      <c r="L38">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39">
+        <v>14.8</v>
+      </c>
+      <c r="E39">
+        <v>9.57</v>
+      </c>
+      <c r="F39">
+        <v>21.2</v>
+      </c>
+      <c r="G39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" s="1">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="K39">
+        <v>0.75</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="G40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="K40">
+        <v>0.749</v>
+      </c>
+      <c r="L40" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="K41">
+        <v>0.749</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42">
+        <v>11.7</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>16.5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42">
+        <v>0.193</v>
+      </c>
+      <c r="K42">
+        <v>0.749</v>
+      </c>
+      <c r="L42">
+        <v>0.80300000000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="K43">
+        <v>0.751</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>13.5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="K44">
+        <v>0.75</v>
+      </c>
+      <c r="L44">
+        <v>1.9599999999999999E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/working/CrizerPFAS/CrizerPFAS-Clint-Level4.xlsx
+++ b/working/CrizerPFAS/CrizerPFAS-Clint-Level4.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwambaug\git\invitrotkstats\working\CrizerPFAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D6DD447-4FE1-4514-8B4D-3BFE184102EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED04F11-6157-410A-BE6A-A1E4CDF032A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CrizerPFAS-Clint-Level4" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="117">
   <si>
     <t>Compound.Name</t>
   </si>
@@ -317,12 +317,66 @@
   </si>
   <si>
     <t>DTXSID90868151</t>
+  </si>
+  <si>
+    <t>Perfluorononanoyl chloride</t>
+  </si>
+  <si>
+    <t>DTXSID00379925</t>
+  </si>
+  <si>
+    <t>6:3 Fluorotelomer carboxylic acid</t>
+  </si>
+  <si>
+    <t>DTXSID70379917</t>
+  </si>
+  <si>
+    <t>8H-Perfluorooctanoic acid</t>
+  </si>
+  <si>
+    <t>DTXSID70565479</t>
+  </si>
+  <si>
+    <t>Pentadecafluorooctanoyl chloride</t>
+  </si>
+  <si>
+    <t>DTXSID40187142</t>
+  </si>
+  <si>
+    <t>Perfluoroheptanoyl chloride</t>
+  </si>
+  <si>
+    <t>DTXSID80382154</t>
+  </si>
+  <si>
+    <t>3-Perfluoroheptylpropanoic acid (7:3 FTCA)</t>
+  </si>
+  <si>
+    <t>DTXSID90382620</t>
+  </si>
+  <si>
+    <t>N-Ethylperfluorooctanesulfonamide (NEtFOSA)</t>
+  </si>
+  <si>
+    <t>9-H-Perfluorononanoic acid (9H-PFNA)</t>
+  </si>
+  <si>
+    <t>DTXSID50226894</t>
+  </si>
+  <si>
+    <t>Perfluoro(2-ethoxyethane)sulfonic acid</t>
+  </si>
+  <si>
+    <t>DTXSID50379814</t>
+  </si>
+  <si>
+    <t>Potassium perfluorooctanoate (KPFOA)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -862,21 +916,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L44" totalsRowShown="0">
-  <autoFilter ref="A1:L44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C92CAED9-1991-4745-AF24-5921B861AEEF}" name="Table1" displayName="Table1" ref="A1:L54" totalsRowShown="0">
+  <autoFilter ref="A1:L54" xr:uid="{C92CAED9-1991-4745-AF24-5921B861AEEF}"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Compound.Name"/>
-    <tableColumn id="2" name="DTXSID"/>
-    <tableColumn id="3" name="Lab.Compound.Name"/>
-    <tableColumn id="4" name="Clint.1.Med"/>
-    <tableColumn id="5" name="Clint.1.Low"/>
-    <tableColumn id="6" name="Clint.1.High"/>
-    <tableColumn id="7" name="Clint.10.Med"/>
-    <tableColumn id="8" name="Clint.10.Low"/>
-    <tableColumn id="9" name="Clint.10.High"/>
-    <tableColumn id="10" name="Clint.pValue"/>
-    <tableColumn id="11" name="Sat.pValue"/>
-    <tableColumn id="12" name="degrades.pValue"/>
+    <tableColumn id="1" xr3:uid="{0B9CC2CC-5176-4A15-ACD5-999BC8BCCEA0}" name="Compound.Name"/>
+    <tableColumn id="2" xr3:uid="{53EA65E3-04EE-4241-8AAA-A44D21A142FA}" name="DTXSID"/>
+    <tableColumn id="3" xr3:uid="{71D84909-619B-4DB2-AC76-20C25637F502}" name="Lab.Compound.Name"/>
+    <tableColumn id="4" xr3:uid="{E4D28AC1-BF1E-4753-8227-5BC091CB3F3C}" name="Clint.1.Med"/>
+    <tableColumn id="5" xr3:uid="{EDBB2105-3F9A-402C-81AF-60C841F90E27}" name="Clint.1.Low"/>
+    <tableColumn id="6" xr3:uid="{0D7B8AEA-B301-44EA-8AD6-CD64FF936651}" name="Clint.1.High"/>
+    <tableColumn id="7" xr3:uid="{EBBBE67B-D336-448A-BCAD-154C08D01A9E}" name="Clint.10.Med"/>
+    <tableColumn id="8" xr3:uid="{8F902350-DFD9-49A5-8F58-6664C42D04AD}" name="Clint.10.Low"/>
+    <tableColumn id="9" xr3:uid="{1876473E-FCD0-4C3C-BDB9-9062EC4B46A7}" name="Clint.10.High"/>
+    <tableColumn id="10" xr3:uid="{95C474E6-90F5-4058-832D-00B9BB33BA71}" name="Clint.pValue"/>
+    <tableColumn id="11" xr3:uid="{A1FAE070-EFD6-45DE-98DD-63CE72FFD969}" name="Sat.pValue"/>
+    <tableColumn id="12" xr3:uid="{C09C6660-1C74-4078-8837-3CBDA84BFE42}" name="degrades.pValue"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1178,16 +1232,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L44"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" customWidth="1"/>
+    <col min="1" max="1" width="45.26953125" customWidth="1"/>
     <col min="2" max="2" width="8.90625" customWidth="1"/>
     <col min="3" max="3" width="21.1796875" customWidth="1"/>
     <col min="4" max="4" width="12.7265625" customWidth="1"/>
@@ -2873,6 +2928,386 @@
         <v>1.9599999999999999E-2</v>
       </c>
     </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45">
+        <v>1.76</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>317</v>
+      </c>
+      <c r="G45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45">
+        <v>0.497</v>
+      </c>
+      <c r="K45">
+        <v>0.748</v>
+      </c>
+      <c r="L45">
+        <v>0.94799999999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>307</v>
+      </c>
+      <c r="G46" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="K46">
+        <v>0.75</v>
+      </c>
+      <c r="L46">
+        <v>0.96899999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>317</v>
+      </c>
+      <c r="G47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47">
+        <v>0.499</v>
+      </c>
+      <c r="K47">
+        <v>0.748</v>
+      </c>
+      <c r="L47">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48">
+        <v>5.47</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>318</v>
+      </c>
+      <c r="G48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>14</v>
+      </c>
+      <c r="J48">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="K48">
+        <v>0.753</v>
+      </c>
+      <c r="L48">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49">
+        <v>2.71</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>317</v>
+      </c>
+      <c r="G49" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49">
+        <v>0.496</v>
+      </c>
+      <c r="K49">
+        <v>0.751</v>
+      </c>
+      <c r="L49">
+        <v>0.94799999999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>310</v>
+      </c>
+      <c r="G50" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="K50">
+        <v>0.75</v>
+      </c>
+      <c r="L50">
+        <v>0.95899999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51">
+        <v>12.8</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>316</v>
+      </c>
+      <c r="G51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51">
+        <v>0.48</v>
+      </c>
+      <c r="K51">
+        <v>0.751</v>
+      </c>
+      <c r="L51">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>317</v>
+      </c>
+      <c r="G52" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>14</v>
+      </c>
+      <c r="J52">
+        <v>0.503</v>
+      </c>
+      <c r="K52">
+        <v>0.754</v>
+      </c>
+      <c r="L52">
+        <v>0.95099999999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>316</v>
+      </c>
+      <c r="G53" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="K53">
+        <v>0.752</v>
+      </c>
+      <c r="L53">
+        <v>0.95099999999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>316</v>
+      </c>
+      <c r="G54" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>14</v>
+      </c>
+      <c r="J54">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="K54">
+        <v>0.751</v>
+      </c>
+      <c r="L54">
+        <v>0.95299999999999996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/working/CrizerPFAS/CrizerPFAS-Clint-Level4.xlsx
+++ b/working/CrizerPFAS/CrizerPFAS-Clint-Level4.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwambaug\git\invitrotkstats\working\CrizerPFAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED04F11-6157-410A-BE6A-A1E4CDF032A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2E551B9-4C69-420C-A081-394168F3FC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="CrizerPFAS-Clint-Level4" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="115">
   <si>
     <t>Compound.Name</t>
   </si>
@@ -319,18 +319,36 @@
     <t>DTXSID90868151</t>
   </si>
   <si>
+    <t>6:3 Fluorotelomer carboxylic acid</t>
+  </si>
+  <si>
+    <t>DTXSID70379917</t>
+  </si>
+  <si>
+    <t>3-Perfluoroheptylpropanoic acid (7:3 FTCA)</t>
+  </si>
+  <si>
+    <t>DTXSID90382620</t>
+  </si>
+  <si>
+    <t>9-H-Perfluorononanoic acid (9H-PFNA)</t>
+  </si>
+  <si>
+    <t>DTXSID50226894</t>
+  </si>
+  <si>
+    <t>Perfluoro(2-ethoxyethane)sulfonic acid</t>
+  </si>
+  <si>
+    <t>DTXSID50379814</t>
+  </si>
+  <si>
     <t>Perfluorononanoyl chloride</t>
   </si>
   <si>
     <t>DTXSID00379925</t>
   </si>
   <si>
-    <t>6:3 Fluorotelomer carboxylic acid</t>
-  </si>
-  <si>
-    <t>DTXSID70379917</t>
-  </si>
-  <si>
     <t>8H-Perfluorooctanoic acid</t>
   </si>
   <si>
@@ -347,36 +365,12 @@
   </si>
   <si>
     <t>DTXSID80382154</t>
-  </si>
-  <si>
-    <t>3-Perfluoroheptylpropanoic acid (7:3 FTCA)</t>
-  </si>
-  <si>
-    <t>DTXSID90382620</t>
-  </si>
-  <si>
-    <t>N-Ethylperfluorooctanesulfonamide (NEtFOSA)</t>
-  </si>
-  <si>
-    <t>9-H-Perfluorononanoic acid (9H-PFNA)</t>
-  </si>
-  <si>
-    <t>DTXSID50226894</t>
-  </si>
-  <si>
-    <t>Perfluoro(2-ethoxyethane)sulfonic acid</t>
-  </si>
-  <si>
-    <t>DTXSID50379814</t>
-  </si>
-  <si>
-    <t>Potassium perfluorooctanoate (KPFOA)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -916,21 +910,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C92CAED9-1991-4745-AF24-5921B861AEEF}" name="Table1" displayName="Table1" ref="A1:L54" totalsRowShown="0">
-  <autoFilter ref="A1:L54" xr:uid="{C92CAED9-1991-4745-AF24-5921B861AEEF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L52" totalsRowShown="0">
+  <autoFilter ref="A1:L52"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{0B9CC2CC-5176-4A15-ACD5-999BC8BCCEA0}" name="Compound.Name"/>
-    <tableColumn id="2" xr3:uid="{53EA65E3-04EE-4241-8AAA-A44D21A142FA}" name="DTXSID"/>
-    <tableColumn id="3" xr3:uid="{71D84909-619B-4DB2-AC76-20C25637F502}" name="Lab.Compound.Name"/>
-    <tableColumn id="4" xr3:uid="{E4D28AC1-BF1E-4753-8227-5BC091CB3F3C}" name="Clint.1.Med"/>
-    <tableColumn id="5" xr3:uid="{EDBB2105-3F9A-402C-81AF-60C841F90E27}" name="Clint.1.Low"/>
-    <tableColumn id="6" xr3:uid="{0D7B8AEA-B301-44EA-8AD6-CD64FF936651}" name="Clint.1.High"/>
-    <tableColumn id="7" xr3:uid="{EBBBE67B-D336-448A-BCAD-154C08D01A9E}" name="Clint.10.Med"/>
-    <tableColumn id="8" xr3:uid="{8F902350-DFD9-49A5-8F58-6664C42D04AD}" name="Clint.10.Low"/>
-    <tableColumn id="9" xr3:uid="{1876473E-FCD0-4C3C-BDB9-9062EC4B46A7}" name="Clint.10.High"/>
-    <tableColumn id="10" xr3:uid="{95C474E6-90F5-4058-832D-00B9BB33BA71}" name="Clint.pValue"/>
-    <tableColumn id="11" xr3:uid="{A1FAE070-EFD6-45DE-98DD-63CE72FFD969}" name="Sat.pValue"/>
-    <tableColumn id="12" xr3:uid="{C09C6660-1C74-4078-8837-3CBDA84BFE42}" name="degrades.pValue"/>
+    <tableColumn id="1" name="Compound.Name"/>
+    <tableColumn id="2" name="DTXSID"/>
+    <tableColumn id="3" name="Lab.Compound.Name"/>
+    <tableColumn id="4" name="Clint.1.Med"/>
+    <tableColumn id="5" name="Clint.1.Low"/>
+    <tableColumn id="6" name="Clint.1.High"/>
+    <tableColumn id="7" name="Clint.10.Med"/>
+    <tableColumn id="8" name="Clint.10.Low"/>
+    <tableColumn id="9" name="Clint.10.High"/>
+    <tableColumn id="10" name="Clint.pValue"/>
+    <tableColumn id="11" name="Sat.pValue"/>
+    <tableColumn id="12" name="degrades.pValue"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1232,17 +1226,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:L54"/>
+      <selection sqref="A1:L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.26953125" customWidth="1"/>
+    <col min="1" max="1" width="17.7265625" customWidth="1"/>
     <col min="2" max="2" width="8.90625" customWidth="1"/>
     <col min="3" max="3" width="21.1796875" customWidth="1"/>
     <col min="4" max="4" width="12.7265625" customWidth="1"/>
@@ -1308,7 +1301,7 @@
         <v>19</v>
       </c>
       <c r="E2">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="F2">
         <v>21.4</v>
@@ -1326,10 +1319,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
       <c r="L2">
-        <v>0.95799999999999996</v>
+        <v>0.95299999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -1343,13 +1336,13 @@
         <v>15</v>
       </c>
       <c r="D3">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="E3">
-        <v>6.47</v>
+        <v>6.9</v>
       </c>
       <c r="F3">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
@@ -1361,13 +1354,13 @@
         <v>14</v>
       </c>
       <c r="J3">
-        <v>1.4200000000000001E-2</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="K3">
-        <v>0.751</v>
+        <v>0.754</v>
       </c>
       <c r="L3">
-        <v>0.98299999999999998</v>
+        <v>0.99199999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -1399,13 +1392,13 @@
         <v>14</v>
       </c>
       <c r="J4">
-        <v>0.98799999999999999</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="K4">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
       <c r="L4">
-        <v>6.8599999999999998E-3</v>
+        <v>3.16E-3</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -1425,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>14.2</v>
+        <v>13.1</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
@@ -1437,13 +1430,13 @@
         <v>14</v>
       </c>
       <c r="J5">
-        <v>0.89500000000000002</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="K5">
-        <v>0.751</v>
+        <v>0.747</v>
       </c>
       <c r="L5">
-        <v>9.7900000000000001E-2</v>
+        <v>5.4699999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -1457,13 +1450,13 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>30.9</v>
       </c>
       <c r="F6">
-        <v>2.4900000000000002</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -1475,7 +1468,7 @@
         <v>14</v>
       </c>
       <c r="J6">
-        <v>0.96499999999999997</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0.747</v>
@@ -1495,13 +1488,13 @@
         <v>23</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>22.4</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
@@ -1513,13 +1506,13 @@
         <v>14</v>
       </c>
       <c r="J7">
-        <v>0.504</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="K7">
         <v>0.75</v>
       </c>
       <c r="L7">
-        <v>0.11700000000000001</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -1533,13 +1526,13 @@
         <v>25</v>
       </c>
       <c r="D8">
-        <v>15.4</v>
+        <v>54.3</v>
       </c>
       <c r="E8">
-        <v>8.73</v>
+        <v>43</v>
       </c>
       <c r="F8">
-        <v>23.8</v>
+        <v>67</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
@@ -1551,13 +1544,13 @@
         <v>14</v>
       </c>
       <c r="J8">
-        <v>2.5999999999999998E-4</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.751</v>
+        <v>0.75</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>4.6600000000000001E-3</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -1589,10 +1582,10 @@
         <v>14</v>
       </c>
       <c r="J9">
-        <v>0.996</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="K9">
-        <v>0.752</v>
+        <v>0.747</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -1609,13 +1602,13 @@
         <v>29</v>
       </c>
       <c r="D10">
-        <v>8.8000000000000007</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>13.4</v>
+        <v>12.2</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -1627,13 +1620,13 @@
         <v>14</v>
       </c>
       <c r="J10">
-        <v>0.26900000000000002</v>
+        <v>0.158</v>
       </c>
       <c r="K10">
         <v>0.748</v>
       </c>
       <c r="L10">
-        <v>0.84299999999999997</v>
+        <v>0.80600000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -1668,7 +1661,7 @@
         <v>0.99299999999999999</v>
       </c>
       <c r="K11">
-        <v>0.75</v>
+        <v>0.752</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1691,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
@@ -1706,7 +1699,7 @@
         <v>0.96699999999999997</v>
       </c>
       <c r="K12">
-        <v>0.745</v>
+        <v>0.752</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1723,13 +1716,13 @@
         <v>35</v>
       </c>
       <c r="D13">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
@@ -1741,13 +1734,13 @@
         <v>14</v>
       </c>
       <c r="J13">
-        <v>0.496</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="K13">
-        <v>0.751</v>
+        <v>0.75</v>
       </c>
       <c r="L13">
-        <v>4.6000000000000001E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -1779,10 +1772,10 @@
         <v>14</v>
       </c>
       <c r="J14">
-        <v>0.98899999999999999</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="K14">
-        <v>0.751</v>
+        <v>0.748</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1799,13 +1792,13 @@
         <v>39</v>
       </c>
       <c r="D15">
-        <v>0.92</v>
+        <v>8.27</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>5.47</v>
       </c>
       <c r="F15">
-        <v>11.6</v>
+        <v>10.6</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
@@ -1816,14 +1809,14 @@
       <c r="I15" t="s">
         <v>14</v>
       </c>
-      <c r="J15">
-        <v>0.498</v>
+      <c r="J15" s="1">
+        <v>1E-4</v>
       </c>
       <c r="K15">
         <v>0.751</v>
       </c>
       <c r="L15">
-        <v>0.99199999999999999</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -1843,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="G16" t="s">
         <v>14</v>
@@ -1855,13 +1848,13 @@
         <v>14</v>
       </c>
       <c r="J16">
-        <v>0.77300000000000002</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="K16">
-        <v>0.747</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>0.21199999999999999</v>
+        <v>0.28199999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -1881,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4.4000000000000004</v>
+        <v>4.13</v>
       </c>
       <c r="G17" t="s">
         <v>14</v>
@@ -1893,10 +1886,10 @@
         <v>14</v>
       </c>
       <c r="J17">
-        <v>0.94499999999999995</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="K17">
-        <v>0.747</v>
+        <v>0.746</v>
       </c>
       <c r="L17">
         <v>0.999</v>
@@ -1913,13 +1906,13 @@
         <v>45</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>17.8</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="G18" t="s">
         <v>14</v>
@@ -1931,13 +1924,13 @@
         <v>14</v>
       </c>
       <c r="J18">
-        <v>0.54200000000000004</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="K18">
-        <v>0.752</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>0.39300000000000002</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -1951,13 +1944,13 @@
         <v>47</v>
       </c>
       <c r="D19">
-        <v>8.43</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>13.8</v>
+        <v>11.8</v>
       </c>
       <c r="G19" t="s">
         <v>14</v>
@@ -1969,13 +1962,13 @@
         <v>14</v>
       </c>
       <c r="J19">
-        <v>0.26900000000000002</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="K19">
         <v>0.748</v>
       </c>
       <c r="L19">
-        <v>0.878</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
@@ -1989,13 +1982,13 @@
         <v>49</v>
       </c>
       <c r="D20">
-        <v>9.43</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>14.7</v>
+        <v>12.6</v>
       </c>
       <c r="G20" t="s">
         <v>14</v>
@@ -2007,13 +2000,13 @@
         <v>14</v>
       </c>
       <c r="J20">
-        <v>0.28399999999999997</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="K20">
-        <v>0.745</v>
+        <v>0.751</v>
       </c>
       <c r="L20">
-        <v>0.74399999999999999</v>
+        <v>0.13400000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -2033,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>21.4</v>
+        <v>20.8</v>
       </c>
       <c r="G21" t="s">
         <v>14</v>
@@ -2045,13 +2038,13 @@
         <v>14</v>
       </c>
       <c r="J21">
-        <v>0.78900000000000003</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="K21">
-        <v>0.746</v>
+        <v>0.75</v>
       </c>
       <c r="L21">
-        <v>0.14399999999999999</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -2071,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>14.9</v>
+        <v>13.9</v>
       </c>
       <c r="G22" t="s">
         <v>14</v>
@@ -2083,10 +2076,10 @@
         <v>14</v>
       </c>
       <c r="J22">
-        <v>0.61199999999999999</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="K22">
-        <v>0.747</v>
+        <v>0.753</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2103,10 +2096,10 @@
         <v>55</v>
       </c>
       <c r="D23">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="F23">
         <v>38</v>
@@ -2124,10 +2117,10 @@
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="K23">
-        <v>0.751</v>
+        <v>0.749</v>
       </c>
       <c r="L23">
-        <v>0.54</v>
+        <v>0.45500000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
@@ -2141,13 +2134,13 @@
         <v>57</v>
       </c>
       <c r="D24">
-        <v>8.77</v>
+        <v>8.5</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>26.9</v>
+        <v>26.6</v>
       </c>
       <c r="G24" t="s">
         <v>14</v>
@@ -2159,13 +2152,13 @@
         <v>14</v>
       </c>
       <c r="J24">
-        <v>7.2099999999999997E-2</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="K24">
         <v>0.75</v>
       </c>
       <c r="L24">
-        <v>7.8299999999999995E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -2185,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>21.4</v>
+        <v>5</v>
       </c>
       <c r="G25" t="s">
         <v>14</v>
@@ -2197,13 +2190,13 @@
         <v>14</v>
       </c>
       <c r="J25">
-        <v>0.65400000000000003</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="K25">
-        <v>0.749</v>
+        <v>0.753</v>
       </c>
       <c r="L25">
-        <v>0.307</v>
+        <v>5.7999999999999996E-3</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -2235,13 +2228,13 @@
         <v>14</v>
       </c>
       <c r="J26">
-        <v>0.97499999999999998</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="K26">
-        <v>0.754</v>
+        <v>0.748</v>
       </c>
       <c r="L26">
-        <v>1.24E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -2255,13 +2248,13 @@
         <v>63</v>
       </c>
       <c r="D27">
-        <v>9.9700000000000006</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>17.899999999999999</v>
+        <v>6.27</v>
       </c>
       <c r="G27" t="s">
         <v>14</v>
@@ -2273,13 +2266,13 @@
         <v>14</v>
       </c>
       <c r="J27">
-        <v>0.45400000000000001</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="K27">
-        <v>0.75</v>
+        <v>0.748</v>
       </c>
       <c r="L27">
-        <v>0.52700000000000002</v>
+        <v>1.24E-2</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -2314,7 +2307,7 @@
         <v>0.99099999999999999</v>
       </c>
       <c r="K28">
-        <v>0.749</v>
+        <v>0.75</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2349,13 +2342,13 @@
         <v>14</v>
       </c>
       <c r="J29">
-        <v>0.995</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="K29">
-        <v>0.751</v>
+        <v>0.747</v>
       </c>
       <c r="L29">
-        <v>2.7999999999999998E-4</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
@@ -2375,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>4.07</v>
+        <v>4.37</v>
       </c>
       <c r="G30" t="s">
         <v>14</v>
@@ -2387,13 +2380,13 @@
         <v>14</v>
       </c>
       <c r="J30">
-        <v>0.95299999999999996</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="K30">
-        <v>0.749</v>
+        <v>0.75</v>
       </c>
       <c r="L30">
-        <v>0.99399999999999999</v>
+        <v>0.99199999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
@@ -2407,13 +2400,13 @@
         <v>71</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>5.97</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>3.11</v>
       </c>
       <c r="F31">
-        <v>9.93</v>
+        <v>8.27</v>
       </c>
       <c r="G31" t="s">
         <v>14</v>
@@ -2425,13 +2418,13 @@
         <v>14</v>
       </c>
       <c r="J31">
-        <v>0.76500000000000001</v>
+        <v>8.4600000000000005E-3</v>
       </c>
       <c r="K31">
-        <v>0.745</v>
+        <v>0.749</v>
       </c>
       <c r="L31">
-        <v>0.99399999999999999</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
@@ -2451,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="G32" t="s">
         <v>14</v>
@@ -2463,13 +2456,13 @@
         <v>14</v>
       </c>
       <c r="J32">
-        <v>0.99</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="K32">
-        <v>0.749</v>
+        <v>0.751</v>
       </c>
       <c r="L32">
-        <v>8.5999999999999998E-4</v>
+        <v>3.7100000000000001E-2</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
@@ -2483,7 +2476,7 @@
         <v>75</v>
       </c>
       <c r="D33">
-        <v>3.67</v>
+        <v>3.8</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2501,13 +2494,13 @@
         <v>14</v>
       </c>
       <c r="J33">
-        <v>0.46100000000000002</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="K33">
-        <v>0.749</v>
+        <v>0.75</v>
       </c>
       <c r="L33">
-        <v>0.46600000000000003</v>
+        <v>0.47599999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
@@ -2521,13 +2514,13 @@
         <v>77</v>
       </c>
       <c r="D34">
-        <v>7.43</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>13.2</v>
+        <v>11</v>
       </c>
       <c r="G34" t="s">
         <v>14</v>
@@ -2539,13 +2532,13 @@
         <v>14</v>
       </c>
       <c r="J34">
-        <v>0.34399999999999997</v>
+        <v>0.79300000000000004</v>
       </c>
       <c r="K34">
-        <v>0.75</v>
+        <v>0.746</v>
       </c>
       <c r="L34">
-        <v>0.85699999999999998</v>
+        <v>0.19400000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
@@ -2559,13 +2552,13 @@
         <v>79</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="F35">
-        <v>10.6</v>
+        <v>14.7</v>
       </c>
       <c r="G35" t="s">
         <v>14</v>
@@ -2577,13 +2570,13 @@
         <v>14</v>
       </c>
       <c r="J35">
-        <v>0.94599999999999995</v>
+        <v>2.4899999999999999E-2</v>
       </c>
       <c r="K35">
-        <v>0.75</v>
+        <v>0.748</v>
       </c>
       <c r="L35">
-        <v>5.1200000000000002E-2</v>
+        <v>0.97299999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
@@ -2615,13 +2608,13 @@
         <v>14</v>
       </c>
       <c r="J36">
-        <v>0.98599999999999999</v>
+        <v>0.996</v>
       </c>
       <c r="K36">
-        <v>0.749</v>
+        <v>0.751</v>
       </c>
       <c r="L36">
-        <v>6.6400000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
@@ -2641,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0.78300000000000003</v>
+        <v>0</v>
       </c>
       <c r="G37" t="s">
         <v>14</v>
@@ -2653,10 +2646,10 @@
         <v>14</v>
       </c>
       <c r="J37">
-        <v>0.97299999999999998</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="K37">
-        <v>0.748</v>
+        <v>0.751</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -2673,13 +2666,13 @@
         <v>85</v>
       </c>
       <c r="D38">
-        <v>10.7</v>
+        <v>11</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F38">
-        <v>15.1</v>
+        <v>13.6</v>
       </c>
       <c r="G38" t="s">
         <v>14</v>
@@ -2690,14 +2683,14 @@
       <c r="I38" t="s">
         <v>14</v>
       </c>
-      <c r="J38">
-        <v>7.9899999999999999E-2</v>
+      <c r="J38" s="1">
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="K38">
-        <v>0.751</v>
+        <v>0.748</v>
       </c>
       <c r="L38">
-        <v>0.98299999999999998</v>
+        <v>0.99199999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
@@ -2717,7 +2710,7 @@
         <v>9.57</v>
       </c>
       <c r="F39">
-        <v>21.2</v>
+        <v>21.7</v>
       </c>
       <c r="G39" t="s">
         <v>14</v>
@@ -2728,14 +2721,14 @@
       <c r="I39" t="s">
         <v>14</v>
       </c>
-      <c r="J39" s="1">
-        <v>2.0000000000000002E-5</v>
+      <c r="J39">
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>0.75</v>
+        <v>0.749</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
@@ -2755,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>8.5299999999999994</v>
+        <v>7.47</v>
       </c>
       <c r="G40" t="s">
         <v>14</v>
@@ -2767,13 +2760,13 @@
         <v>14</v>
       </c>
       <c r="J40">
-        <v>0.90200000000000002</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="K40">
         <v>0.749</v>
       </c>
-      <c r="L40" s="1">
-        <v>2.9999999999999997E-4</v>
+      <c r="L40">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
@@ -2805,10 +2798,10 @@
         <v>14</v>
       </c>
       <c r="J41">
-        <v>0.98599999999999999</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="K41">
-        <v>0.749</v>
+        <v>0.751</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -2825,13 +2818,13 @@
         <v>93</v>
       </c>
       <c r="D42">
-        <v>11.7</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>16.5</v>
+        <v>14.8</v>
       </c>
       <c r="G42" t="s">
         <v>14</v>
@@ -2843,13 +2836,13 @@
         <v>14</v>
       </c>
       <c r="J42">
-        <v>0.193</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="K42">
-        <v>0.749</v>
+        <v>0.753</v>
       </c>
       <c r="L42">
-        <v>0.80300000000000005</v>
+        <v>0.27800000000000002</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
@@ -2881,10 +2874,10 @@
         <v>14</v>
       </c>
       <c r="J43">
-        <v>0.98399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="K43">
-        <v>0.751</v>
+        <v>0.753</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -2907,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>13.5</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="G44" t="s">
         <v>14</v>
@@ -2919,13 +2912,13 @@
         <v>14</v>
       </c>
       <c r="J44">
-        <v>0.85399999999999998</v>
+        <v>0.87</v>
       </c>
       <c r="K44">
-        <v>0.75</v>
-      </c>
-      <c r="L44">
-        <v>1.9599999999999999E-2</v>
+        <v>0.749</v>
+      </c>
+      <c r="L44" s="1">
+        <v>2.0000000000000002E-5</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
@@ -2939,13 +2932,13 @@
         <v>99</v>
       </c>
       <c r="D45">
-        <v>1.76</v>
+        <v>11</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>317</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="G45" t="s">
         <v>14</v>
@@ -2957,13 +2950,13 @@
         <v>14</v>
       </c>
       <c r="J45">
-        <v>0.497</v>
+        <v>7.7299999999999994E-2</v>
       </c>
       <c r="K45">
-        <v>0.748</v>
+        <v>0.751</v>
       </c>
       <c r="L45">
-        <v>0.94799999999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
@@ -2977,13 +2970,13 @@
         <v>101</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>9.73</v>
       </c>
       <c r="F46">
-        <v>307</v>
+        <v>22.9</v>
       </c>
       <c r="G46" t="s">
         <v>14</v>
@@ -2995,13 +2988,13 @@
         <v>14</v>
       </c>
       <c r="J46">
-        <v>0.64200000000000002</v>
+        <v>1.2E-4</v>
       </c>
       <c r="K46">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
       <c r="L46">
-        <v>0.96899999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
@@ -3015,13 +3008,13 @@
         <v>103</v>
       </c>
       <c r="D47">
-        <v>0.85699999999999998</v>
+        <v>269</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="F47">
-        <v>317</v>
+        <v>437</v>
       </c>
       <c r="G47" t="s">
         <v>14</v>
@@ -3033,13 +3026,13 @@
         <v>14</v>
       </c>
       <c r="J47">
-        <v>0.499</v>
+        <v>6.6E-3</v>
       </c>
       <c r="K47">
-        <v>0.748</v>
+        <v>0.752</v>
       </c>
       <c r="L47">
-        <v>0.95199999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
@@ -3053,13 +3046,13 @@
         <v>105</v>
       </c>
       <c r="D48">
-        <v>5.47</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>318</v>
+        <v>280</v>
       </c>
       <c r="G48" t="s">
         <v>14</v>
@@ -3071,13 +3064,13 @@
         <v>14</v>
       </c>
       <c r="J48">
-        <v>0.49299999999999999</v>
+        <v>0.497</v>
       </c>
       <c r="K48">
-        <v>0.753</v>
+        <v>0.748</v>
       </c>
       <c r="L48">
-        <v>0.94899999999999995</v>
+        <v>0.90500000000000003</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
@@ -3091,13 +3084,13 @@
         <v>107</v>
       </c>
       <c r="D49">
-        <v>2.71</v>
+        <v>773</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="F49">
-        <v>317</v>
+        <v>917</v>
       </c>
       <c r="G49" t="s">
         <v>14</v>
@@ -3109,13 +3102,13 @@
         <v>14</v>
       </c>
       <c r="J49">
-        <v>0.496</v>
+        <v>0</v>
       </c>
       <c r="K49">
         <v>0.751</v>
       </c>
       <c r="L49">
-        <v>0.94799999999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
@@ -3135,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>310</v>
+        <v>120</v>
       </c>
       <c r="G50" t="s">
         <v>14</v>
@@ -3147,13 +3140,13 @@
         <v>14</v>
       </c>
       <c r="J50">
-        <v>0.55300000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="K50">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
       <c r="L50">
-        <v>0.95899999999999996</v>
+        <v>0.94899999999999995</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
@@ -3161,19 +3154,19 @@
         <v>111</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="C51" t="s">
         <v>111</v>
       </c>
       <c r="D51">
-        <v>12.8</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>316</v>
+        <v>76</v>
       </c>
       <c r="G51" t="s">
         <v>14</v>
@@ -3185,25 +3178,25 @@
         <v>14</v>
       </c>
       <c r="J51">
-        <v>0.48</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="K51">
-        <v>0.751</v>
+        <v>0.748</v>
       </c>
       <c r="L51">
-        <v>0.94199999999999995</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" t="s">
         <v>113</v>
       </c>
-      <c r="C52" t="s">
-        <v>112</v>
-      </c>
       <c r="D52">
         <v>0</v>
       </c>
@@ -3211,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>317</v>
+        <v>87.7</v>
       </c>
       <c r="G52" t="s">
         <v>14</v>
@@ -3223,89 +3216,13 @@
         <v>14</v>
       </c>
       <c r="J52">
-        <v>0.503</v>
+        <v>0.754</v>
       </c>
       <c r="K52">
-        <v>0.754</v>
+        <v>0.749</v>
       </c>
       <c r="L52">
-        <v>0.95099999999999996</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>114</v>
-      </c>
-      <c r="B53" t="s">
-        <v>115</v>
-      </c>
-      <c r="C53" t="s">
-        <v>114</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>316</v>
-      </c>
-      <c r="G53" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" t="s">
-        <v>14</v>
-      </c>
-      <c r="I53" t="s">
-        <v>14</v>
-      </c>
-      <c r="J53">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="K53">
-        <v>0.752</v>
-      </c>
-      <c r="L53">
-        <v>0.95099999999999996</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>116</v>
-      </c>
-      <c r="B54" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54" t="s">
-        <v>116</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>316</v>
-      </c>
-      <c r="G54" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" t="s">
-        <v>14</v>
-      </c>
-      <c r="I54" t="s">
-        <v>14</v>
-      </c>
-      <c r="J54">
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="K54">
-        <v>0.751</v>
-      </c>
-      <c r="L54">
-        <v>0.95299999999999996</v>
+        <v>0.98899999999999999</v>
       </c>
     </row>
   </sheetData>
